--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_36.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3211118.525621849</v>
+        <v>3315298.160072919</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8122415.26635206</v>
+        <v>8122415.266352059</v>
       </c>
     </row>
     <row r="11">
@@ -659,16 +661,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>306.1978291555864</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>336.6349953644113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>10.92172565345345</v>
@@ -677,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,19 +712,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,16 +819,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -835,7 +837,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>253.2914608369059</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>141.7312913064994</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,10 +904,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>379.7315683992896</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>10.92172565345345</v>
@@ -914,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>326.7297675541179</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1066,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>120.6066690490812</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>61.73332682041209</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>51.14598080466996</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>156.0117890664181</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1151,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,16 +1186,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1291,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,13 +1302,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1354,10 +1356,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>133.2205257453331</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.166281869766606</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695523</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1528,10 +1530,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1543,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>28.42659968729146</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>72.01539947949684</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1604,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="15">
@@ -1768,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,10 +1779,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>88.92406475355425</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1813,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>174.7517449752703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -2005,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>47.49734780285714</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2017,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2053,19 +2055,19 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>64.91921363453612</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2078,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2129,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="21">
@@ -2245,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,16 +2298,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>132.7714033631327</v>
       </c>
       <c r="W22" t="n">
-        <v>178.2798710842938</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2375,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2479,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>38.61213096654735</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2491,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>72.26558381699965</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2615,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2713,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,7 +2724,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2770,10 +2772,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>129.3292263586716</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>141.8888082957386</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2798,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>36.86080948088116</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2968,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>180.8758919807164</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3077,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>41.56693137108846</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3199,13 +3201,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>112.1188594237458</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3281,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3424,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>12.74007641194068</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3487,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>186.1851504080588</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3560,7 +3562,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3658,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>82.25298866282695</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3679,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>167.9698660663631</v>
       </c>
     </row>
     <row r="41">
@@ -3788,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3898,13 +3900,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>106.1798850986051</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3913,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>131.9527903262019</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4037,7 +4039,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4141,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>285.5970594671156</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>203.5751040450769</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1501.213961756482</v>
+        <v>1506.363819949361</v>
       </c>
       <c r="C2" t="n">
-        <v>1501.213961756482</v>
+        <v>1137.401303008949</v>
       </c>
       <c r="D2" t="n">
-        <v>1142.948263149732</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="E2" t="n">
-        <v>757.1600105514876</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F2" t="n">
         <v>417.1246616985469</v>
@@ -4325,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410101</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.72178906653</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796416</v>
+        <v>2656.568750250374</v>
       </c>
       <c r="X2" t="n">
-        <v>2277.953133796416</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="Y2" t="n">
-        <v>1887.813801820604</v>
+        <v>1892.963660013482</v>
       </c>
     </row>
     <row r="3">
@@ -4401,19 +4403,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2489.924953962484</v>
+        <v>627.8744564335971</v>
       </c>
       <c r="C4" t="n">
-        <v>2320.988771034577</v>
+        <v>627.8744564335971</v>
       </c>
       <c r="D4" t="n">
-        <v>2170.872131622241</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E4" t="n">
-        <v>2022.959038039848</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F4" t="n">
-        <v>1876.069090541938</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>1708.366253916657</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134515</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.82338995286</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348672</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396717</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022995</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3325.60582160917</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>3325.60582160917</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T4" t="n">
-        <v>3103.839206178696</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U4" t="n">
-        <v>2814.736339304339</v>
+        <v>1581.614130404702</v>
       </c>
       <c r="V4" t="n">
-        <v>2814.736339304339</v>
+        <v>1326.929642198815</v>
       </c>
       <c r="W4" t="n">
-        <v>2814.736339304339</v>
+        <v>1037.512472161854</v>
       </c>
       <c r="X4" t="n">
-        <v>2671.573418792724</v>
+        <v>809.5229212638368</v>
       </c>
       <c r="Y4" t="n">
-        <v>2671.573418792724</v>
+        <v>809.5229212638368</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1938.90602284268</v>
+        <v>1537.086630593157</v>
       </c>
       <c r="C5" t="n">
-        <v>1569.943505902268</v>
+        <v>1168.124113652745</v>
       </c>
       <c r="D5" t="n">
-        <v>1211.677807295518</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881545</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F5" t="n">
         <v>417.1246616985469</v>
@@ -4562,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520487</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176916</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2325.505862906802</v>
+        <v>2300.691720830048</v>
       </c>
       <c r="X5" t="n">
-        <v>2325.505862906802</v>
+        <v>1927.225962568968</v>
       </c>
       <c r="Y5" t="n">
-        <v>2325.505862906802</v>
+        <v>1537.086630593157</v>
       </c>
     </row>
     <row r="6">
@@ -4620,64 +4622,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>680.3679798527295</v>
+        <v>730.5823923378725</v>
       </c>
       <c r="C7" t="n">
-        <v>511.4317969248226</v>
+        <v>730.5823923378725</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124868</v>
+        <v>580.4657529255368</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300937</v>
+        <v>432.5526593431437</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218339</v>
+        <v>285.6627118452333</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1735.608663915319</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U7" t="n">
-        <v>1673.251768137125</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="V7" t="n">
-        <v>1418.567279931238</v>
+        <v>1361.01298720966</v>
       </c>
       <c r="W7" t="n">
-        <v>1129.150109894277</v>
+        <v>1361.01298720966</v>
       </c>
       <c r="X7" t="n">
-        <v>901.1605589962596</v>
+        <v>1133.023436311642</v>
       </c>
       <c r="Y7" t="n">
-        <v>680.3679798527295</v>
+        <v>912.2308571681123</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1238.038871968309</v>
+        <v>2102.492507030338</v>
       </c>
       <c r="C8" t="n">
-        <v>1186.376265094905</v>
+        <v>1733.529990089926</v>
       </c>
       <c r="D8" t="n">
-        <v>828.1105664881544</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881544</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
@@ -4832,22 +4834,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883007</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539437</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269322</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="X8" t="n">
-        <v>2014.778044008242</v>
+        <v>2492.63183900615</v>
       </c>
       <c r="Y8" t="n">
-        <v>1624.638712032431</v>
+        <v>2102.492507030338</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>359.619250712236</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C10" t="n">
-        <v>359.619250712236</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D10" t="n">
-        <v>359.619250712236</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>359.619250712236</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218342</v>
@@ -5002,10 +5004,10 @@
         <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>362.8175152271517</v>
+        <v>456.2408785036205</v>
       </c>
       <c r="Y10" t="n">
-        <v>359.619250712236</v>
+        <v>235.4482993600903</v>
       </c>
     </row>
     <row r="11">
@@ -5030,37 +5032,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5072,10 +5074,10 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852888</v>
@@ -5112,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M12" t="n">
-        <v>1174.766565373399</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N12" t="n">
-        <v>1802.364528928006</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>948.5505208511905</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C13" t="n">
-        <v>779.6143379232836</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>584.5295404712656</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>436.6164468888725</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>289.7264993909621</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>122.530400105842</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5221,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2191.365421478097</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1902.290194822295</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1647.605706616408</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1358.188536579448</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1130.19898568143</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1130.19898568143</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="14">
@@ -5258,7 +5260,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5267,7 +5269,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5355,28 +5357,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M15" t="n">
-        <v>738.7889117913853</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N15" t="n">
-        <v>1366.386875345992</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>1918.296605585279</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>806.8386896933887</v>
+        <v>3265.163417426591</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9025067654818</v>
+        <v>3096.227234498685</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>2946.110595086349</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>2798.197501503956</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>2651.307554006045</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S16" t="n">
-        <v>2270.446169463826</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T16" t="n">
-        <v>2270.446169463826</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="U16" t="n">
-        <v>1981.370942808024</v>
+        <v>4218.903091397696</v>
       </c>
       <c r="V16" t="n">
-        <v>1726.686454602137</v>
+        <v>3964.218603191809</v>
       </c>
       <c r="W16" t="n">
-        <v>1437.269284565176</v>
+        <v>3674.801433154848</v>
       </c>
       <c r="X16" t="n">
-        <v>1209.279733667159</v>
+        <v>3446.811882256831</v>
       </c>
       <c r="Y16" t="n">
-        <v>988.4871545236284</v>
+        <v>3446.811882256831</v>
       </c>
     </row>
     <row r="17">
@@ -5504,19 +5506,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5528,7 +5530,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5592,28 +5594,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>119.290296770379</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>119.290296770379</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>996.5276398439756</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C19" t="n">
-        <v>827.5914569160688</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5701,22 +5703,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854706</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W19" t="n">
-        <v>1398.968683817745</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X19" t="n">
-        <v>1398.968683817745</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y19" t="n">
-        <v>1178.176104674215</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="20">
@@ -5726,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168599</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5783,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3342.537229081859</v>
+        <v>701.4712640439268</v>
       </c>
       <c r="C22" t="n">
-        <v>3173.601046153952</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741616</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159223</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>3932.255922673039</v>
+        <v>1621.319028952675</v>
       </c>
       <c r="W22" t="n">
-        <v>3752.175244810116</v>
+        <v>1331.901858915714</v>
       </c>
       <c r="X22" t="n">
-        <v>3524.185693912098</v>
+        <v>1103.912308017697</v>
       </c>
       <c r="Y22" t="n">
-        <v>3524.185693912098</v>
+        <v>883.1197288741665</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5980,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192531</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6072,22 +6074,22 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N24" t="n">
-        <v>1520.445529061503</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O24" t="n">
-        <v>2072.35525930079</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
-        <v>2495.978408795858</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327643</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C25" t="n">
-        <v>594.8179559048574</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.402603663004</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="26">
@@ -6218,13 +6220,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6233,10 +6235,10 @@
         <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6263,10 +6265,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K27" t="n">
-        <v>2389.334518447046</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L27" t="n">
-        <v>2884.660124662805</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M27" t="n">
-        <v>3482.038612289356</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N27" t="n">
-        <v>3482.038612289356</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>4033.948342528643</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>4457.571492023711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>637.9025067654818</v>
+        <v>2903.818811013811</v>
       </c>
       <c r="C28" t="n">
-        <v>637.9025067654818</v>
+        <v>2734.882628085904</v>
       </c>
       <c r="D28" t="n">
-        <v>637.9025067654818</v>
+        <v>2734.882628085904</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>2586.969534503511</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>2586.969534503511</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V28" t="n">
-        <v>1557.75027167423</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W28" t="n">
-        <v>1268.333101637269</v>
+        <v>3534.249405885598</v>
       </c>
       <c r="X28" t="n">
-        <v>1040.343550739252</v>
+        <v>3306.259854987581</v>
       </c>
       <c r="Y28" t="n">
-        <v>819.5509715957215</v>
+        <v>3085.467275844051</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,37 +6478,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N30" t="n">
-        <v>1731.250242493492</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3044.50749608713</v>
+        <v>985.7836617409695</v>
       </c>
       <c r="C31" t="n">
-        <v>2875.571313159223</v>
+        <v>816.8474788130626</v>
       </c>
       <c r="D31" t="n">
-        <v>2875.571313159223</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159223</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4507.978318053498</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>4288.376853076439</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U31" t="n">
-        <v>3999.301626420637</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="V31" t="n">
-        <v>3744.61713821475</v>
+        <v>1905.631426649717</v>
       </c>
       <c r="W31" t="n">
-        <v>3455.19996817779</v>
+        <v>1616.214256612757</v>
       </c>
       <c r="X31" t="n">
-        <v>3227.210417279773</v>
+        <v>1388.224705714739</v>
       </c>
       <c r="Y31" t="n">
-        <v>3044.50749608713</v>
+        <v>1167.432126571209</v>
       </c>
     </row>
     <row r="32">
@@ -6695,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,10 +6712,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6734,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>924.8344286397182</v>
+        <v>746.8882603249853</v>
       </c>
       <c r="M33" t="n">
-        <v>1522.21291626627</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N33" t="n">
-        <v>1522.21291626627</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O33" t="n">
-        <v>2074.122646505557</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>849.3843576263199</v>
+        <v>990.5373202159263</v>
       </c>
       <c r="C34" t="n">
-        <v>680.448174698413</v>
+        <v>821.6011372880195</v>
       </c>
       <c r="D34" t="n">
-        <v>530.3315352860773</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E34" t="n">
-        <v>382.4184417036842</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y34" t="n">
-        <v>1031.03282245656</v>
+        <v>990.5373202159263</v>
       </c>
     </row>
     <row r="35">
@@ -6917,31 +6919,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.55866301478</v>
@@ -6950,22 +6952,22 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -6977,7 +6979,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K36" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M36" t="n">
-        <v>923.0670414349511</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1550.665004989558</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P36" t="n">
         <v>2319.799627685893</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>620.8230468926974</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C37" t="n">
-        <v>620.8230468926974</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D37" t="n">
-        <v>470.7064074803617</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="E37" t="n">
-        <v>322.7933138979686</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1023.264090866467</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>802.4715117229372</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,16 +7186,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>184.7035232280583</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>184.7035232280583</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397182</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2939.372134388645</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C40" t="n">
-        <v>2939.372134388645</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D40" t="n">
-        <v>2856.288307456496</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E40" t="n">
-        <v>2708.375213874103</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F40" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.331149328841</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U40" t="n">
-        <v>3932.255922673039</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V40" t="n">
-        <v>3677.571434467152</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W40" t="n">
-        <v>3388.154264430192</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X40" t="n">
-        <v>3160.164713532175</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y40" t="n">
-        <v>2939.372134388645</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,25 +7408,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7494,22 +7496,22 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>506.2737913123336</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="M42" t="n">
-        <v>1103.652278938886</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N42" t="n">
-        <v>1731.250242493492</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>781.8178837532264</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="C43" t="n">
-        <v>781.8178837532264</v>
+        <v>747.3584617859347</v>
       </c>
       <c r="D43" t="n">
-        <v>631.7012443408906</v>
+        <v>597.2418223735989</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2063.776898693424</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1774.701672037622</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1520.017183831735</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1230.600013794774</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1002.610462896757</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>781.8178837532264</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,22 +7645,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7679,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7727,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>184.7035232280583</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>184.7035232280583</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M45" t="n">
-        <v>1501.8401750111</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N45" t="n">
-        <v>2129.438138565707</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3175.341129796739</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C46" t="n">
-        <v>3006.404946868832</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D46" t="n">
-        <v>2856.288307456496</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E46" t="n">
-        <v>2708.375213874103</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>2561.485266376193</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>4623.787448650995</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>4334.712221995193</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V46" t="n">
-        <v>4080.027733789307</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W46" t="n">
-        <v>3790.610563752346</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X46" t="n">
-        <v>3562.621012854329</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y46" t="n">
-        <v>3356.989594626978</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
   </sheetData>
@@ -23416,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23431,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>111.8681131589324</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>145.3900508477914</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23656,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,10 +23667,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>76.6000735387146</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>6.274541026374266</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23893,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>101.1181252153552</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23905,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23941,19 +23943,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>152.4862366927521</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24133,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>119.3662399606953</v>
       </c>
       <c r="W22" t="n">
-        <v>108.2431272522972</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>213.9188905722445</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24610,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24658,10 +24660,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>122.8084169651564</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>144.6341900408524</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>111.7546635373312</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24883,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>37.70876137137836</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>107.0485416471239</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.465793928349</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25312,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>133.6938862346285</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25375,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>39.52450498097835</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>66.3624843553854</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -25600,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>50.61478728573167</v>
       </c>
     </row>
     <row r="41">
@@ -25786,13 +25788,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>40.25407754796407</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25837,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>85.4526600010864</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26029,13 +26031,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26071,25 +26073,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>0.9259388694753738</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>15.00954930701789</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>699493.3769667762</v>
+        <v>699493.3769667763</v>
       </c>
     </row>
     <row r="7">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>699493.3769667762</v>
+        <v>699493.3769667763</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>699493.3769667763</v>
+        <v>699493.3769667762</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>699493.3769667763</v>
+        <v>699493.3769667762</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778553</v>
+        <v>738937.5928778554</v>
       </c>
       <c r="C2" t="n">
         <v>738937.5928778552</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778552</v>
+        <v>738937.5928778553</v>
       </c>
       <c r="E2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="F2" t="n">
         <v>726431.9397210054</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="H2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="I2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="J2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="K2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="L2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="G2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="M2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="N2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="I2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="J2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
         <v>726431.9397210052</v>
       </c>
-      <c r="L2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="M2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="N2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="O2" t="n">
-        <v>726431.9397210054</v>
-      </c>
       <c r="P2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210053</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.056716882885667e-10</v>
       </c>
       <c r="J3" t="n">
         <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820641</v>
+        <v>93403.78684820633</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820641</v>
+        <v>93403.78684820635</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820632</v>
+        <v>93403.78684820631</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.7520768551</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.7520768551</v>
       </c>
       <c r="G4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="H4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.7520768551</v>
       </c>
       <c r="I4" t="n">
         <v>14216.75207685505</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-791144.8802593366</v>
+        <v>-791144.8802593368</v>
       </c>
       <c r="C6" t="n">
-        <v>537599.8654682555</v>
+        <v>537599.8654682556</v>
       </c>
       <c r="D6" t="n">
-        <v>537599.8654682556</v>
+        <v>537599.8654682557</v>
       </c>
       <c r="E6" t="n">
-        <v>285680.1960128882</v>
+        <v>285680.1960128877</v>
       </c>
       <c r="F6" t="n">
         <v>611092.6578202432</v>
       </c>
       <c r="G6" t="n">
-        <v>611092.6578202434</v>
+        <v>611092.6578202432</v>
       </c>
       <c r="H6" t="n">
         <v>611092.6578202432</v>
       </c>
       <c r="I6" t="n">
-        <v>611092.6578202433</v>
+        <v>611092.6578202429</v>
       </c>
       <c r="J6" t="n">
-        <v>393561.4554229658</v>
+        <v>393561.4554229655</v>
       </c>
       <c r="K6" t="n">
+        <v>611092.6578202432</v>
+      </c>
+      <c r="L6" t="n">
+        <v>611092.6578202432</v>
+      </c>
+      <c r="M6" t="n">
+        <v>526037.6298847313</v>
+      </c>
+      <c r="N6" t="n">
+        <v>611092.6578202432</v>
+      </c>
+      <c r="O6" t="n">
         <v>611092.657820243</v>
       </c>
-      <c r="L6" t="n">
-        <v>611092.6578202433</v>
-      </c>
-      <c r="M6" t="n">
-        <v>526037.6298847316</v>
-      </c>
-      <c r="N6" t="n">
-        <v>611092.6578202434</v>
-      </c>
-      <c r="O6" t="n">
-        <v>611092.6578202433</v>
-      </c>
       <c r="P6" t="n">
-        <v>611092.6578202433</v>
+        <v>611092.6578202432</v>
       </c>
     </row>
   </sheetData>
@@ -26692,16 +26694,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26719,7 +26721,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26787,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022928</v>
@@ -26814,13 +26816,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26978,13 +26980,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,16 +27381,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>48.48521246509659</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>70.24105037730016</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27430,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,16 +27539,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27582,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>32.92037736870697</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>83.97836408253778</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,10 +27624,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>2.198801672972138</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27667,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>22.51120116329508</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27786,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>45.41913920994698</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>224.4785113852008</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>314.1269109663376</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>198.6712525542648</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,16 +27906,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28011,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,13 +28022,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28074,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>92.48912964370408</v>
       </c>
       <c r="Y10" t="n">
-        <v>215.4183714823282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28324,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28378,22 +28380,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28798,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28849,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
     </row>
     <row r="21">
@@ -31039,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31838,13 +31840,13 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>254.8897444730604</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31853,10 +31855,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>237.3557891543625</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
@@ -32017,10 +32019,10 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
@@ -32075,16 +32077,16 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32093,13 +32095,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>539.5330155967683</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32312,13 +32314,13 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>152.5685698206132</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>183.7183104822601</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32336,7 +32338,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32491,7 +32493,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32546,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32555,25 +32557,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>302.5540177178169</v>
+        <v>748.8168776781358</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32791,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>388.5140139297707</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>160.6314956130963</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,22 +33022,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>297.1808238847173</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>432.1946015714842</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>567.5882829286707</v>
       </c>
       <c r="N30" t="n">
-        <v>191.332301678856</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>460.9249101897659</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>345.1232217852619</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33739,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>491.597732526532</v>
+        <v>522.1224556861829</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33892,34 +33894,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>218.6425359394812</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>595.3857163736981</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34129,34 +34131,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34213,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>217.8799919951683</v>
+        <v>430.4001870301144</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>218.6425359394812</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>575.5951359912046</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35486,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>116.3353646931863</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35501,10 +35503,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>94.75954470991805</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
@@ -35665,10 +35667,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35741,13 +35743,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>405.558608182438</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35960,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -35984,7 +35986,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36139,7 +36141,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36194,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>171.2123056344836</v>
+        <v>617.4751655948025</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>245.9177694853263</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>20.64972152707474</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36668,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>159.3393849103583</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>290.0605676494659</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>425.4542490066523</v>
       </c>
       <c r="N30" t="n">
-        <v>59.99058959552271</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -37151,7 +37153,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>322.3705304098917</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37162,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>211.1488143709317</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,22 +37390,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>349.0014880820875</v>
+        <v>379.5262112417385</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>91.80490927281453</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>453.2516824516798</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>79.32561221529411</v>
+        <v>291.8458072502402</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>91.80490927281453</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>433.4611020691863</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3315298.160072919</v>
+        <v>3311285.550058927</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>306.1978291555864</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -715,10 +715,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>19.68942351146622</v>
       </c>
     </row>
     <row r="3">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -867,25 +867,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>41.95995423521121</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>253.2914608369059</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>232.2592575948904</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>326.7297675541179</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1056,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>120.6066690490812</v>
+        <v>4.133579580731436</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>156.0117890664181</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>321.8286559082777</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>63.10873435712737</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>133.2205257453331</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695523</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1530,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>28.42659968729146</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>88.92406475355425</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>64.91921363453612</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695521</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>71.76895293959856</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>132.7714033631327</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>72.26558381699965</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2721,19 +2721,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>141.8888082957386</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2800,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>36.86080948088116</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>41.56693137108846</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695459</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,10 +3429,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>12.74007641194068</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>167.9698660663631</v>
+        <v>172.1249649038638</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>95.12712756824166</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>106.1798850986051</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>285.5970594671156</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1506.363819949361</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C2" t="n">
-        <v>1137.401303008949</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
-        <v>828.1105664881545</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>828.1105664881545</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>417.1246616985469</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4330,7 +4330,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4339,7 +4339,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4363,19 +4363,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520488</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2656.568750250374</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2283.102991989294</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1892.963660013482</v>
+        <v>1678.62132134232</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>627.8744564335971</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>627.8744564335971</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>477.7578170212613</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>477.7578170212613</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
         <v>477.7578170212613</v>
@@ -4515,25 +4515,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1795.080298689242</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.464090846021</v>
+        <v>1795.080298689242</v>
       </c>
       <c r="U4" t="n">
-        <v>1581.614130404702</v>
+        <v>1795.080298689242</v>
       </c>
       <c r="V4" t="n">
-        <v>1326.929642198815</v>
+        <v>1540.395810483355</v>
       </c>
       <c r="W4" t="n">
-        <v>1037.512472161854</v>
+        <v>1540.395810483355</v>
       </c>
       <c r="X4" t="n">
-        <v>809.5229212638368</v>
+        <v>1312.406259585337</v>
       </c>
       <c r="Y4" t="n">
-        <v>809.5229212638368</v>
+        <v>1091.613680441807</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1537.086630593157</v>
+        <v>1867.116698829638</v>
       </c>
       <c r="C5" t="n">
-        <v>1168.124113652745</v>
+        <v>1498.154181889226</v>
       </c>
       <c r="D5" t="n">
-        <v>809.8584150459947</v>
+        <v>1139.888483282476</v>
       </c>
       <c r="E5" t="n">
-        <v>424.0701624477504</v>
+        <v>754.1002306842317</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>343.1143258946242</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4579,40 +4579,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>2961.7846764101</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066531</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W5" t="n">
-        <v>2300.691720830048</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="X5" t="n">
-        <v>1927.225962568968</v>
+        <v>2257.25603080545</v>
       </c>
       <c r="Y5" t="n">
-        <v>1537.086630593157</v>
+        <v>1867.116698829638</v>
       </c>
     </row>
     <row r="6">
@@ -4637,22 +4637,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>730.5823923378725</v>
+        <v>781.8689899442139</v>
       </c>
       <c r="C7" t="n">
-        <v>730.5823923378725</v>
+        <v>612.932807016307</v>
       </c>
       <c r="D7" t="n">
-        <v>580.4657529255368</v>
+        <v>462.8161676039713</v>
       </c>
       <c r="E7" t="n">
-        <v>432.5526593431437</v>
+        <v>314.9030740215782</v>
       </c>
       <c r="F7" t="n">
-        <v>285.6627118452333</v>
+        <v>168.0131265236678</v>
       </c>
       <c r="G7" t="n">
         <v>163.8377936138381</v>
@@ -4722,19 +4722,19 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415547</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U7" t="n">
-        <v>1615.697475415547</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="V7" t="n">
-        <v>1361.01298720966</v>
+        <v>1480.924175709432</v>
       </c>
       <c r="W7" t="n">
-        <v>1361.01298720966</v>
+        <v>1191.507005672471</v>
       </c>
       <c r="X7" t="n">
-        <v>1133.023436311642</v>
+        <v>963.5174547744537</v>
       </c>
       <c r="Y7" t="n">
-        <v>912.2308571681123</v>
+        <v>963.5174547744537</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2102.492507030338</v>
+        <v>2255.174438931363</v>
       </c>
       <c r="C8" t="n">
-        <v>1733.529990089926</v>
+        <v>1886.211921990951</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>1527.946223384201</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>1142.157970785957</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>731.1720659963491</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4813,43 +4813,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.09759726723</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V8" t="n">
-        <v>2866.09759726723</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W8" t="n">
-        <v>2866.09759726723</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X8" t="n">
-        <v>2492.63183900615</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="Y8" t="n">
-        <v>2102.492507030338</v>
+        <v>2641.774278995485</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>235.4482993600903</v>
+        <v>943.7005868594143</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218342</v>
+        <v>774.7644039315074</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218342</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1863.548351768162</v>
       </c>
       <c r="W10" t="n">
-        <v>590.8070661251691</v>
+        <v>1574.131181731201</v>
       </c>
       <c r="X10" t="n">
-        <v>456.2408785036205</v>
+        <v>1346.141630833184</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.4482993600903</v>
+        <v>1125.349051689654</v>
       </c>
     </row>
     <row r="11">
@@ -5017,61 +5017,61 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466572</v>
@@ -5080,13 +5080,13 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>734.6461798836013</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>584.5295404712656</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>436.6164468888725</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>289.7264993909621</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>122.530400105842</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5244,7 +5244,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5269,31 +5269,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3265.163417426591</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>3096.227234498685</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>2946.110595086349</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>2798.197501503956</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>2651.307554006045</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>4507.978318053498</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>4507.978318053498</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>4218.903091397696</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>3964.218603191809</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>3674.801433154848</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>3446.811882256831</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>3446.811882256831</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5497,7 +5497,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5506,19 +5506,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>139.234765840794</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>788.0191461778176</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5703,22 +5703,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2131.487582220359</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168599</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5840,13 +5840,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N21" t="n">
-        <v>2283.159972732779</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>701.4712640439268</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C22" t="n">
-        <v>532.5350811160199</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D22" t="n">
-        <v>382.4184417036842</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E22" t="n">
-        <v>382.4184417036842</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>248.3972582582387</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1621.319028952675</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1331.901858915714</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1103.912308017697</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>883.1197288741665</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="23">
@@ -5968,70 +5968,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192531</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6068,25 +6068,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1025.119922845744</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1652.717886400351</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6220,13 +6220,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6235,10 +6235,10 @@
         <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6247,7 +6247,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6305,25 +6305,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>429.5088224239596</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2903.818811013811</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>2734.882628085904</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>2734.882628085904</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>2586.969534503511</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>2586.969534503511</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>2419.773435218391</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3534.249405885598</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3306.259854987581</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>3085.467275844051</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6481,31 +6481,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1344.266747951537</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P30" t="n">
         <v>2319.799627685893</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>985.7836617409695</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>816.8474788130626</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2160.315914855604</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1905.631426649717</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1616.214256612757</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1388.224705714739</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1167.432126571209</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,10 +6712,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6779,25 +6779,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>746.8882603249853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1344.266747951537</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>990.5373202159263</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>821.6011372880195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>990.5373202159263</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6916,52 +6916,52 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492579</v>
@@ -6970,13 +6970,13 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
         <v>3094.515198591809</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1520.445529061503</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>734.6461798836018</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>565.7099969556949</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>415.5933575433592</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>916.2946447138415</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7162,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362687</v>
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,16 +7186,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>184.7035232280583</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>184.7035232280583</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>784.5811134804959</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C40" t="n">
-        <v>615.644930552589</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>465.5282911402533</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>966.2295783107356</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="41">
@@ -7402,31 +7402,31 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>716.6687843969303</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>916.2946447138415</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>747.3584617859347</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D43" t="n">
-        <v>597.2418223735989</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>916.2946447138415</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7639,19 +7639,19 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,7 +7660,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>184.7035232280583</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>184.7035232280583</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>803.8641191832228</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>634.9279362553159</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1977.461080510509</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1722.776592304622</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1434.29471405501</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1206.305163156993</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>985.5125840134625</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23418,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>111.8681131589324</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>76.6000735387146</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,10 +23943,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>152.4862366927521</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>68.52575990662532</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>119.3662399606953</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>213.9188905722445</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>144.6341900408524</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>111.7546635373312</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>107.0485416471239</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25317,10 +25317,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>133.6938862346285</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25566,10 +25566,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>50.61478728573167</v>
+        <v>46.45968844823096</v>
       </c>
     </row>
     <row r="41">
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>72.11969353038617</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>40.25407754796407</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,16 +26076,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0.9259388694753738</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>699493.3769667763</v>
+        <v>699493.3769667762</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>699493.3769667763</v>
+        <v>699493.3769667762</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>699493.3769667763</v>
+        <v>699493.3769667762</v>
       </c>
     </row>
     <row r="13">
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778554</v>
+        <v>738937.5928778553</v>
       </c>
       <c r="C2" t="n">
         <v>738937.5928778552</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778553</v>
+        <v>738937.5928778552</v>
       </c>
       <c r="E2" t="n">
         <v>726431.9397210052</v>
       </c>
       <c r="F2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="G2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="H2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="I2" t="n">
         <v>726431.9397210052</v>
       </c>
       <c r="J2" t="n">
-        <v>726431.939721005</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="K2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="L2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="M2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="N2" t="n">
         <v>726431.9397210053</v>
@@ -26355,7 +26355,7 @@
         <v>726431.9397210052</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210055</v>
       </c>
     </row>
     <row r="3">
@@ -26371,7 +26371,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073552</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.056716882885667e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820633</v>
+        <v>93403.78684820636</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820635</v>
+        <v>93403.78684820642</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820631</v>
+        <v>93403.78684820636</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.7520768551</v>
+        <v>14216.75207685511</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.7520768551</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="G4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="H4" t="n">
-        <v>14216.7520768551</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="I4" t="n">
         <v>14216.75207685505</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-791144.8802593368</v>
+        <v>-791144.8802593369</v>
       </c>
       <c r="C6" t="n">
-        <v>537599.8654682556</v>
+        <v>537599.8654682557</v>
       </c>
       <c r="D6" t="n">
-        <v>537599.8654682557</v>
+        <v>537599.8654682552</v>
       </c>
       <c r="E6" t="n">
-        <v>285680.1960128877</v>
+        <v>285332.8167585308</v>
       </c>
       <c r="F6" t="n">
-        <v>611092.6578202432</v>
+        <v>610745.2785658862</v>
       </c>
       <c r="G6" t="n">
-        <v>611092.6578202432</v>
+        <v>610745.2785658863</v>
       </c>
       <c r="H6" t="n">
-        <v>611092.6578202432</v>
+        <v>610745.2785658864</v>
       </c>
       <c r="I6" t="n">
-        <v>611092.6578202429</v>
+        <v>610745.2785658861</v>
       </c>
       <c r="J6" t="n">
-        <v>393561.4554229655</v>
+        <v>393214.0761686087</v>
       </c>
       <c r="K6" t="n">
-        <v>611092.6578202432</v>
+        <v>610745.2785658861</v>
       </c>
       <c r="L6" t="n">
-        <v>611092.6578202432</v>
+        <v>610745.2785658864</v>
       </c>
       <c r="M6" t="n">
-        <v>526037.6298847313</v>
+        <v>525690.2506303743</v>
       </c>
       <c r="N6" t="n">
-        <v>611092.6578202432</v>
+        <v>610745.2785658862</v>
       </c>
       <c r="O6" t="n">
-        <v>611092.657820243</v>
+        <v>610745.2785658861</v>
       </c>
       <c r="P6" t="n">
-        <v>611092.6578202432</v>
+        <v>610745.2785658864</v>
       </c>
     </row>
   </sheetData>
@@ -26694,16 +26694,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26721,7 +26721,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26816,13 +26816,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26965,7 +26965,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -26980,13 +26980,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>48.48521246509659</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,10 +27435,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>366.5485151445874</v>
       </c>
     </row>
     <row r="3">
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27587,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>147.8090710962307</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>32.92037736870697</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27627,13 +27627,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>178.6624680585631</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,7 +27678,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>22.51120116329508</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>45.41913920994698</v>
+        <v>161.8922286782968</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27836,13 +27836,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>198.6712525542648</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>89.0930697451758</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>189.0289089667006</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>92.48912964370408</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28380,22 +28380,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31837,16 +31837,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>254.8897444730604</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31855,13 +31855,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32019,7 +32019,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32074,34 +32074,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32311,13 +32311,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>183.7183104822601</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32329,16 +32329,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32472,7 +32472,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K20" t="n">
         <v>699.5441750817575</v>
@@ -32560,16 +32560,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>748.8168776781358</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>388.5140139297707</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33025,28 +33025,28 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>432.1946015714842</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>567.5882829286707</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>228.3420541567482</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>460.9249101897659</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>522.1224556861829</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>218.6425359394812</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>430.4001870301144</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>218.6425359394812</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>116.3353646931863</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35503,13 +35503,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35667,7 +35667,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>45.87687150790109</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35977,16 +35977,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36208,16 +36208,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>617.4751655948025</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>245.9177694853263</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36673,28 +36673,28 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>290.0605676494659</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>425.4542490066523</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>97.00034207341486</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>322.3705304098917</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>379.5262112417385</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>91.80490927281453</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>291.8458072502402</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>91.80490927281453</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3311285.550058927</v>
+        <v>3313046.080361713</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>84.79446220325073</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.68942351146622</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734102899</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>130.8921069052589</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>41.95995423521121</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>232.2592575948904</v>
+        <v>175.5903906093074</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1062,19 +1062,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>77.31354443380503</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>4.133579580731436</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>297.9986308222623</v>
       </c>
       <c r="G8" t="n">
-        <v>321.8286559082777</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1299,7 +1299,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>63.10873435712805</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1311,7 +1311,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>63.10873435712737</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710085</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444125</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053468</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1852,10 +1852,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417126</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788180381</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634816</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>71.76895293959856</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>224.7837165195622</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>83.06560892428251</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2569,10 +2569,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444161</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766865</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695776</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428251</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417126</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428253</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3277,13 +3277,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187888</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695459</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703275</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812095</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>172.1249649038638</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>95.12712756824166</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673027</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788180381</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1678.62132134232</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D2" t="n">
         <v>1320.35562273557</v>
@@ -4333,13 +4333,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4357,25 +4357,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3239.954849686696</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3033.977102070918</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2780.446625344754</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2449.383738001183</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2449.383738001183</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>2075.917979740103</v>
       </c>
       <c r="Y2" t="n">
-        <v>1678.62132134232</v>
+        <v>2075.917979740103</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>936.5735814686067</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>846.0716871064742</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080121</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>920.7416649986295</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4491,16 +4491,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1795.080298689242</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1795.080298689242</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1795.080298689242</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>1540.395810483355</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W4" t="n">
-        <v>1540.395810483355</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="X4" t="n">
-        <v>1312.406259585337</v>
+        <v>1444.620508984589</v>
       </c>
       <c r="Y4" t="n">
-        <v>1091.613680441807</v>
+        <v>1223.827929841059</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1867.116698829638</v>
+        <v>1767.87852028569</v>
       </c>
       <c r="C5" t="n">
-        <v>1498.154181889226</v>
+        <v>1398.916003345278</v>
       </c>
       <c r="D5" t="n">
-        <v>1139.888483282476</v>
+        <v>1040.650304738528</v>
       </c>
       <c r="E5" t="n">
-        <v>754.1002306842317</v>
+        <v>654.8620521402834</v>
       </c>
       <c r="F5" t="n">
-        <v>343.1143258946242</v>
+        <v>243.8761473506758</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.7846764101</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.72178906653</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W5" t="n">
-        <v>2630.72178906653</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X5" t="n">
-        <v>2257.25603080545</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y5" t="n">
-        <v>1867.116698829638</v>
+        <v>1767.87852028569</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>781.8689899442139</v>
+        <v>463.6594280995018</v>
       </c>
       <c r="C7" t="n">
-        <v>612.932807016307</v>
+        <v>294.723245171595</v>
       </c>
       <c r="D7" t="n">
-        <v>462.8161676039713</v>
+        <v>144.6066057592592</v>
       </c>
       <c r="E7" t="n">
-        <v>314.9030740215782</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>168.0131265236678</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1735.608663915319</v>
+        <v>1638.191681214137</v>
       </c>
       <c r="V7" t="n">
-        <v>1480.924175709432</v>
+        <v>1383.50719300825</v>
       </c>
       <c r="W7" t="n">
-        <v>1191.507005672471</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X7" t="n">
-        <v>963.5174547744537</v>
+        <v>866.1004720732717</v>
       </c>
       <c r="Y7" t="n">
-        <v>963.5174547744537</v>
+        <v>645.3078929297416</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2255.174438931363</v>
+        <v>1491.569348694474</v>
       </c>
       <c r="C8" t="n">
-        <v>1886.211921990951</v>
+        <v>1122.606831754063</v>
       </c>
       <c r="D8" t="n">
-        <v>1527.946223384201</v>
+        <v>764.3411331473123</v>
       </c>
       <c r="E8" t="n">
-        <v>1142.157970785957</v>
+        <v>378.5528805490681</v>
       </c>
       <c r="F8" t="n">
-        <v>731.1720659963491</v>
+        <v>77.5441625467829</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609173</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609173</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609173</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609173</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265599</v>
+        <v>2994.542934265602</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995485</v>
+        <v>2641.774278995488</v>
       </c>
       <c r="X8" t="n">
-        <v>2641.774278995485</v>
+        <v>2268.308520734408</v>
       </c>
       <c r="Y8" t="n">
-        <v>2641.774278995485</v>
+        <v>1878.169188758596</v>
       </c>
     </row>
     <row r="9">
@@ -4859,43 +4859,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158138</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>943.7005868594143</v>
+        <v>1007.446783179746</v>
       </c>
       <c r="C10" t="n">
-        <v>774.7644039315074</v>
+        <v>838.5106002518388</v>
       </c>
       <c r="D10" t="n">
-        <v>624.6477645191717</v>
+        <v>688.3939608395031</v>
       </c>
       <c r="E10" t="n">
         <v>624.6477645191717</v>
@@ -4953,34 +4953,34 @@
         <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959802</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279956</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764919</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760409</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q10" t="n">
         <v>1927.294548088493</v>
@@ -4998,16 +4998,16 @@
         <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1863.548351768162</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W10" t="n">
-        <v>1574.131181731201</v>
+        <v>1637.877378051533</v>
       </c>
       <c r="X10" t="n">
-        <v>1346.141630833184</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y10" t="n">
-        <v>1125.349051689654</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,16 +5114,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5272,40 +5272,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5415,55 +5415,55 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
         <v>2035.268256189238</v>
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,40 +5527,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
         <v>402.7245934908939</v>
@@ -5667,58 +5667,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,64 +5740,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192608</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M21" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="N21" t="n">
-        <v>1702.079034721979</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>734.6461798836013</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C22" t="n">
-        <v>565.7099969556945</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D22" t="n">
-        <v>415.5933575433587</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>415.5933575433587</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>415.5933575433587</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>248.3972582582387</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1750.40682139984</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1495.722333193953</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y22" t="n">
-        <v>916.2946447138411</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="23">
@@ -5980,22 +5980,22 @@
         <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
@@ -6007,7 +6007,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852256</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L24" t="n">
         <v>1072.713683962606</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004716</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406472</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168638</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436271</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
@@ -6229,49 +6229,49 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="29">
@@ -6439,55 +6439,55 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192609</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S29" t="n">
         <v>4606.285157492578</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N30" t="n">
-        <v>1767.889897446606</v>
+        <v>1767.889897446605</v>
       </c>
       <c r="O30" t="n">
         <v>2319.799627685893</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L33" t="n">
         <v>1072.713683962606</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F35" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168636</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192609</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,25 +7162,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192474</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111704</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075799</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014779</v>
@@ -7192,31 +7192,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C40" t="n">
-        <v>391.8463960427007</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>241.729756630365</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y40" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="41">
@@ -7408,25 +7408,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7785,16 +7785,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7806,34 +7806,34 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
         <v>2035.268256189238</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H13" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>57.22910392194146</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.22910392194126</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>68.52575990662532</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>61.40075786968194</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24375,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864873</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>57.22910392194137</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>57.22910392194134</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194133</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194134</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>138.4949402405069</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>72.11969353038617</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>57.22910392194143</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.22910392194126</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778553</v>
+        <v>738937.5928778558</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778552</v>
+        <v>738937.5928778555</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778552</v>
+        <v>738937.5928778555</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="F2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="G2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="H2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="I2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="J2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="K2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="K2" t="n">
-        <v>726431.9397210052</v>
-      </c>
       <c r="L2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="M2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="N2" t="n">
         <v>726431.9397210053</v>
       </c>
       <c r="O2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210053</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26417,40 +26417,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820631</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820642</v>
+        <v>93403.78684820631</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820623</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.75207685511</v>
+        <v>14216.75207685501</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685499</v>
       </c>
       <c r="G4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.752076855</v>
       </c>
       <c r="H4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685501</v>
       </c>
       <c r="I4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685494</v>
       </c>
       <c r="K4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685494</v>
       </c>
       <c r="L4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.752076855</v>
       </c>
       <c r="M4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685494</v>
       </c>
       <c r="N4" t="n">
         <v>14216.75207685505</v>
@@ -26484,13 +26484,13 @@
         <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="I5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="J5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-791144.8802593369</v>
+        <v>-791144.8802593367</v>
       </c>
       <c r="C6" t="n">
+        <v>537599.8654682559</v>
+      </c>
+      <c r="D6" t="n">
         <v>537599.8654682557</v>
       </c>
-      <c r="D6" t="n">
-        <v>537599.8654682552</v>
-      </c>
       <c r="E6" t="n">
-        <v>285332.8167585308</v>
+        <v>285645.4580874526</v>
       </c>
       <c r="F6" t="n">
-        <v>610745.2785658862</v>
+        <v>611057.9198948073</v>
       </c>
       <c r="G6" t="n">
-        <v>610745.2785658863</v>
+        <v>611057.9198948075</v>
       </c>
       <c r="H6" t="n">
-        <v>610745.2785658864</v>
+        <v>611057.9198948075</v>
       </c>
       <c r="I6" t="n">
-        <v>610745.2785658861</v>
+        <v>611057.9198948075</v>
       </c>
       <c r="J6" t="n">
-        <v>393214.0761686087</v>
+        <v>393526.7174975302</v>
       </c>
       <c r="K6" t="n">
-        <v>610745.2785658861</v>
+        <v>611057.9198948075</v>
       </c>
       <c r="L6" t="n">
-        <v>610745.2785658864</v>
+        <v>611057.9198948074</v>
       </c>
       <c r="M6" t="n">
-        <v>525690.2506303743</v>
+        <v>526002.8919592957</v>
       </c>
       <c r="N6" t="n">
-        <v>610745.2785658862</v>
+        <v>611057.9198948074</v>
       </c>
       <c r="O6" t="n">
-        <v>610745.2785658861</v>
+        <v>611057.9198948077</v>
       </c>
       <c r="P6" t="n">
-        <v>610745.2785658864</v>
+        <v>611057.9198948075</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,43 +26789,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022932</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>24.39329958492507</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>366.5485151445874</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>48.93987327667836</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>147.8090710962307</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>178.6624680585631</v>
+        <v>235.331335044146</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,16 +27669,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27782,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>69.12041821276414</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>161.8922286782968</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>108.8774149194491</v>
       </c>
       <c r="G8" t="n">
-        <v>89.0930697451758</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>83.32522828944113</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28070,7 +28070,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>189.0289089667006</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28575,7 +28575,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-1.193711796076968e-12</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28800,7 +28800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-7.008101237811299e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-2.501110429875552e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29562,7 +29562,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>-2.501110429875552e-12</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29760,7 +29760,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>-1.193711796076968e-12</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29985,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-8.938954302177351e-14</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -29997,13 +29997,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>-8.938954302177351e-14</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-2.143552257788458e-12</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>-8.938954302177351e-14</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>-8.938954302177351e-14</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I8" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970232</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,16 +31843,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
         <v>398.7616643558013</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663288</v>
+        <v>466.754615566328</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>301.6445156724565</v>
+        <v>301.644515672455</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817582</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N30" t="n">
-        <v>228.3420541567482</v>
+        <v>228.342054156747</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33502,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043738</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,19 +33739,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067219</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,19 +33976,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,19 +34213,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669205</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,19 +34450,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525787</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,13 +35494,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
         <v>256.1654199113569</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.7087110396417</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>159.048271228012</v>
+        <v>159.0482712280106</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,22 +36436,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N30" t="n">
-        <v>97.00034207341486</v>
+        <v>97.00034207341372</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,22 +37147,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236315972</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492471</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
